--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B01A86-A153-43C6-AD44-CE8E3164CF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0ABFBB-7D79-450E-AEB5-2FF0953C417C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC0867D-C6CD-40B3-A718-F37DFCED64DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBCEE26-FD16-4E41-B8C0-5BE17A076C0A}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB4F6A3-454B-4256-B89C-506915240835}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1BDCF0-406A-456C-AFDE-2317947C05FA}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDCE73A-8ACB-4DDC-8082-7A919C63BA76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F15C51C-31F6-410E-B1A5-170184249BAB}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0ABFBB-7D79-450E-AEB5-2FF0953C417C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AB09B8-59B8-4B32-AECC-E502D13536A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBCEE26-FD16-4E41-B8C0-5BE17A076C0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6018E06-8C7D-4535-A0BE-188A1020A87A}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1BDCF0-406A-456C-AFDE-2317947C05FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200DB313-62CE-45DE-BDA7-2B224B675075}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F15C51C-31F6-410E-B1A5-170184249BAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECB7B63-7FB8-4C0D-B462-D2914A28254A}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AB09B8-59B8-4B32-AECC-E502D13536A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED14753-8117-4AF0-AE42-DF7BCD1E1D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6018E06-8C7D-4535-A0BE-188A1020A87A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998100B7-71BD-4EF1-ABEA-370ABA3F691C}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200DB313-62CE-45DE-BDA7-2B224B675075}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1945D072-D3E3-4E55-8558-58534B6B504C}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECB7B63-7FB8-4C0D-B462-D2914A28254A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587C9179-1920-4F3C-8C70-BD84AD2A9C1E}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED14753-8117-4AF0-AE42-DF7BCD1E1D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F6A5F5-7E1F-47A0-88E5-A55D3FD4F027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998100B7-71BD-4EF1-ABEA-370ABA3F691C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2014A77-E1EA-44F0-9E53-694C5BFE802E}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1945D072-D3E3-4E55-8558-58534B6B504C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8681E4F0-96F2-4A7E-8332-581116DF8060}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587C9179-1920-4F3C-8C70-BD84AD2A9C1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DBDD85-5C7B-4793-8B3A-FBE49AD297B8}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
